--- a/secure/26P-Victor.xlsx
+++ b/secure/26P-Victor.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Victor-397348</t>
+    <t>26P-Victor-980195</t>
   </si>
   <si>
-    <t>26P-Victor-214323</t>
+    <t>26P-Victor-586891</t>
   </si>
   <si>
-    <t>26P-Victor-549880</t>
+    <t>26P-Victor-1040917</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F96b08bf"/>
+        <fgColor rgb="Fdc21713"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:SP503"/>
+  <dimension ref="A1:WI503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1279,14 +1279,11 @@
       </c>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="1:510" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>-0.452</v>
       </c>
       <c r="M139" s="4"/>
-      <c r="SP139" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
@@ -1480,11 +1477,14 @@
       </c>
       <c r="M171" s="4"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:514" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>-0.32</v>
       </c>
       <c r="M172" s="4"/>
+      <c r="ST172" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
@@ -2002,11 +2002,14 @@
       </c>
       <c r="M258" s="4"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:374" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>0.028</v>
       </c>
       <c r="M259" s="4"/>
+      <c r="NJ259" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
@@ -2464,14 +2467,11 @@
       </c>
       <c r="M335" s="4"/>
     </row>
-    <row r="336" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>0.336</v>
       </c>
       <c r="M336" s="4"/>
-      <c r="CP336" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
@@ -3325,14 +3325,11 @@
       </c>
       <c r="M478" s="4"/>
     </row>
-    <row r="479" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>0.908</v>
       </c>
       <c r="M479" s="4"/>
-      <c r="FV479" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
@@ -3448,11 +3445,14 @@
       </c>
       <c r="M498" s="4"/>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:607" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>0.988</v>
       </c>
       <c r="M499" s="4"/>
+      <c r="WI499" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
